--- a/specs/Complexity.xlsx
+++ b/specs/Complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casimir/PycharmProjects/data-compressor-python/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D9892-A32A-AF4A-8916-654C5FB67BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF370D-F2C9-EC42-BDE1-225B25E798D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="880" windowWidth="20040" windowHeight="25700" activeTab="1" xr2:uid="{378C875B-7B0A-3E4C-91C6-28A5AD843485}"/>
   </bookViews>
@@ -69,8 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -130,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -163,6 +164,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +488,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,14 +705,15 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -719,7 +728,7 @@
       <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -749,11 +758,13 @@
         <f>(Sheet1!B2-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3000</v>
+      <c r="C2" s="12">
+        <f>(Sheet1!C2-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <f>(Sheet1!D2-Sheet1!D2)/(Sheet1!D7-Sheet1!D2) *100</f>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
         <v>1000000</v>
@@ -775,11 +786,13 @@
         <f>(Sheet1!B3-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
         <v>20</v>
       </c>
-      <c r="C3" s="9">
-        <v>10000</v>
+      <c r="C3" s="12">
+        <f>(Sheet1!C3-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>9.000090000900008E-3</v>
       </c>
       <c r="D3" s="10">
-        <v>40000</v>
+        <f>(Sheet1!D3-Sheet1!D2)/(Sheet1!D7-Sheet1!D2) *100</f>
+        <v>4.6250173438150393E-3</v>
       </c>
       <c r="E3" s="9">
         <v>100000000</v>
@@ -801,11 +814,13 @@
         <f>(Sheet1!B4-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
         <v>40</v>
       </c>
-      <c r="C4" s="9">
-        <v>100000</v>
+      <c r="C4" s="12">
+        <f>(Sheet1!C4-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>9.9000990009900106E-2</v>
       </c>
       <c r="D4" s="10">
-        <v>500000</v>
+        <f>(Sheet1!D4-Sheet1!D2)/(Sheet1!D7-Sheet1!D2) *100</f>
+        <v>6.2125232969623634E-2</v>
       </c>
       <c r="E4" s="9">
         <v>10000000000</v>
@@ -827,11 +842,13 @@
         <f>(Sheet1!B5-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
         <v>60</v>
       </c>
-      <c r="C5" s="9">
-        <v>1000000</v>
+      <c r="C5" s="12">
+        <f>(Sheet1!C5-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>0.99900999009990099</v>
       </c>
       <c r="D5" s="10">
-        <v>6000000</v>
+        <f>(Sheet1!D2-Sheet1!D2)/(Sheet1!D7-Sheet1!D2) *100</f>
+        <v>0</v>
       </c>
       <c r="E5" s="9">
         <v>1000000000000</v>
@@ -850,11 +867,12 @@
         <v>10000000</v>
       </c>
       <c r="B6" s="9">
-        <f>(Sheet1!B6-Sheet1!B6)/(Sheet1!B11-Sheet1!B6) *100</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>10000000</v>
+        <f>(Sheet1!B6-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
+        <v>80</v>
+      </c>
+      <c r="C6" s="12">
+        <f>(Sheet1!C6-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>9.9990999909999108</v>
       </c>
       <c r="D6" s="10">
         <v>70000000</v>
@@ -876,11 +894,12 @@
         <v>100000000</v>
       </c>
       <c r="B7" s="9">
-        <f>(Sheet1!B7-Sheet1!B6)/(Sheet1!B11-Sheet1!B6) *100</f>
-        <v>-14.285714285714285</v>
-      </c>
-      <c r="C7" s="9">
-        <v>100000000</v>
+        <f>(Sheet1!B7-Sheet1!B2)/(Sheet1!B7-Sheet1!B2) *100</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <f>(Sheet1!C7-Sheet1!C2)/(Sheet1!C7-Sheet1!C2) *100</f>
+        <v>100</v>
       </c>
       <c r="D7" s="10">
         <v>800000000</v>
